--- a/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
+++ b/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Monitoring Location Name</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Kenai River - Cunningham Park</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 74 - Russian River</t>
   </si>
 </sst>
 </file>
@@ -487,28 +490,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,7 +519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -524,7 +527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -532,7 +535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -540,144 +543,147 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>

--- a/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
+++ b/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
@@ -23,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Benjamin Meyer</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Benjamin Meyer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These columns were manually matched by Benjamin Meyer 2/3/2022</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>Monitoring Location Name</t>
   </si>
@@ -162,13 +196,82 @@
   </si>
   <si>
     <t>Kenai River - River Mile 74 - Russian River</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM31-Morgan's Landing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM0-No Name Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM22-Soldotna Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM23-Swiftwater Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM30-Funny River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM36-Moose River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM40-Bing's Landing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM44-Mouth of Killey River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM50-Skilak Lake Outlet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM70-Jim's Landing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM74-Russian River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM82-Kenai Lake Bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM79.5 Juneau Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm10.1-Kenai River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM12.5-Pillar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM18-Poachers Cove </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM19-Slikok Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM21-Soldotna Bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM0-No Name Creek  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM1.5-Kenai City Dock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM6.5-Cunningham Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10-Beaver creek </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +286,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,21 +605,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,175 +634,371 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B2:B46">
+    <sortCondition ref="B1:B45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
+++ b/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Monitoring Location Name</t>
   </si>
@@ -252,6 +252,87 @@
   </si>
   <si>
     <t>KR RM 82</t>
+  </si>
+  <si>
+    <t>Trip_Blank_1</t>
+  </si>
+  <si>
+    <t>Trip_Blank_2</t>
+  </si>
+  <si>
+    <t>Trip_Blank_3</t>
+  </si>
+  <si>
+    <t>Trip_Blank_4</t>
+  </si>
+  <si>
+    <t>RM_0_No_Name_Creek</t>
+  </si>
+  <si>
+    <t>RM_1.5_Kenai_City_Dock</t>
+  </si>
+  <si>
+    <t>RM_6.5_Cunningham_Park</t>
+  </si>
+  <si>
+    <t>RM_10_Beaver_Creek</t>
+  </si>
+  <si>
+    <t>RM_10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t>RM_12.5_Pillars</t>
+  </si>
+  <si>
+    <t>RM_18_Poachers_Cove</t>
+  </si>
+  <si>
+    <t>RM_19_Slikok_Creek</t>
+  </si>
+  <si>
+    <t>RM_21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t>RM_22_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t>RM_23_Swiftwater_Park</t>
+  </si>
+  <si>
+    <t>RM_30_Funny_River</t>
+  </si>
+  <si>
+    <t>RM_31_Morgans_Landing</t>
+  </si>
+  <si>
+    <t>RM_36_Moose_River</t>
+  </si>
+  <si>
+    <t>RM_40_Bings_Landing</t>
+  </si>
+  <si>
+    <t>RM_43_Upstream_of_Dow_Isalnd</t>
+  </si>
+  <si>
+    <t>RM_44_Mouth_of_Killey_River</t>
+  </si>
+  <si>
+    <t>RM_50_Skilak_Lake_Outflow</t>
+  </si>
+  <si>
+    <t>RM_70_Jims_Landing</t>
+  </si>
+  <si>
+    <t>RM_74_Russian_River</t>
+  </si>
+  <si>
+    <t>RM_82_Kenai_Lake_Bridge</t>
+  </si>
+  <si>
+    <t>RM_79.5_Juneau_Creek</t>
+  </si>
+  <si>
+    <t>RM_0_No_Name_Creek_</t>
   </si>
 </sst>
 </file>
@@ -578,22 +659,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -603,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -611,32 +692,32 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
       <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -644,10 +725,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -655,288 +736,583 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B44" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B45" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B46" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B47" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B50" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>24</v>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C45">
-    <sortCondition ref="C2:C45"/>
+  <sortState ref="C2:C56">
+    <sortCondition ref="C2:C56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
+++ b/other/input/AQWMS/site_names_matching_table_manual_edit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
   <si>
     <t>Monitoring Location Name</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>RM_0_No_Name_Creek_</t>
+  </si>
+  <si>
+    <t>RM0_No_Name_Cree_</t>
+  </si>
+  <si>
+    <t>RM0_No_Name_Creek_</t>
+  </si>
+  <si>
+    <t>RM31_Morgans_Landing_</t>
   </si>
 </sst>
 </file>
@@ -659,11 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,57 +695,57 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -744,13 +753,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -758,200 +767,200 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
@@ -959,24 +968,24 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
@@ -984,79 +993,79 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
@@ -1064,68 +1073,68 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
         <v>24</v>
@@ -1133,13 +1142,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -1147,13 +1156,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,7 +1173,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,18 +1184,18 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,32 +1206,32 @@
         <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1230,89 +1239,125 @@
         <v>72</v>
       </c>
       <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>23</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>19</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B56" t="s">
         <v>74</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B58" t="s">
         <v>75</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="C2:C56">
-    <sortCondition ref="C2:C56"/>
+  <sortState ref="A2:C59">
+    <sortCondition ref="A2:A59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
